--- a/data-raw/submissions/Danielle Kern - Thrones Pool.xlsx
+++ b/data-raw/submissions/Danielle Kern - Thrones Pool.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/thrones-pool/data-raw/submissions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EC0FB-D50A-8E44-BB80-1BF8618F7398}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Name:</t>
   </si>
@@ -37,9 +46,6 @@
     <t>Sandor Clegane</t>
   </si>
   <si>
-    <t>dies</t>
-  </si>
-  <si>
     <t>Arya Stark</t>
   </si>
   <si>
@@ -172,15 +178,9 @@
     <t>Winner of CLEGANEBOWL? (2)</t>
   </si>
   <si>
-    <t>sandor</t>
-  </si>
-  <si>
     <t>Who kills the Night King?…if killed (3) **If you think he lives pick his name **</t>
   </si>
   <si>
-    <t>drogon</t>
-  </si>
-  <si>
     <t>Who kills Cercei? … if killed (3) **If you think this bitch lives pick her name**</t>
   </si>
   <si>
@@ -190,9 +190,6 @@
     <t>Will we see an undead Ned Stark? (2) … yes or no answer</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Over / under how many Stark children survive: +1.5 ? (2)</t>
   </si>
   <si>
@@ -206,46 +203,56 @@
   </si>
   <si>
     <t>Who wins the Game of Thrones??? (5) **If only one person guesses correctly they win 20% of pool and a prize**</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -255,7 +262,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -301,7 +308,13 @@
     </fill>
   </fills>
   <borders count="18">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
@@ -315,8 +328,10 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
@@ -326,6 +341,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -334,19 +350,25 @@
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-    </border>
-    <border>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
@@ -356,22 +378,29 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-    </border>
-    <border>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF515151"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -386,14 +415,18 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF515151"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -408,26 +441,39 @@
       <bottom style="thin">
         <color rgb="FF515151"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF515151"/>
       </right>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFA5A5A5"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
@@ -437,6 +483,7 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -445,9 +492,11 @@
       <right style="thin">
         <color rgb="FF515151"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF515151"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -456,9 +505,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -473,573 +524,871 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="58.71"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="5"/>
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="12" t="s">
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17" t="s">
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="12" t="s">
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="E10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17" t="s">
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12" t="s">
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="E14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="E15" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17" t="s">
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17" t="s">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="E17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12" t="s">
+      <c r="C18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12" t="s">
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="E19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17" t="s">
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="E20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="12" t="s">
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="E21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="12" t="s">
+      <c r="C22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="E22" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12" t="s">
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="E23" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12" t="s">
+      <c r="C24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="E24" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17">
+      <c r="A25" s="5"/>
+      <c r="B25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="19" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="22" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="22" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="26" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="15" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="27" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="28" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="27" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="28" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="22" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="15" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="27" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="28" t="s">
-        <v>27</v>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/submissions/Danielle Kern - Thrones Pool.xlsx
+++ b/data-raw/submissions/Danielle Kern - Thrones Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/thrones-pool/data-raw/submissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EC0FB-D50A-8E44-BB80-1BF8618F7398}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76694821-CD2D-FE42-9BD9-8A1BB05BB105}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Name:</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Who kills Cercei? … if killed (3) **If you think this bitch lives pick her name**</t>
-  </si>
-  <si>
-    <t>Arya</t>
   </si>
   <si>
     <t>Will we see an undead Ned Stark? (2) … yes or no answer</t>
@@ -578,6 +575,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -594,13 +598,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,7 +919,7 @@
   <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -943,12 +940,12 @@
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="5"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="5"/>
@@ -973,7 +970,7 @@
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -1267,110 +1264,110 @@
     </row>
     <row r="25" spans="1:5" ht="17">
       <c r="A25" s="5"/>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="30" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="32" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="18" t="s">
-        <v>54</v>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="30" t="s">
-        <v>61</v>
+      <c r="B31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="18" t="s">
         <v>26</v>
       </c>
